--- a/data/trans_bre/P32-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P32-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-32,64%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-5,15; 4,64</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-15,46; 0,92</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-9,89; -1,7</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 472,43</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,59; 11,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,45%</t>
         </is>
       </c>
     </row>
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,17; 0,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,2; -1,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; 3,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,91; 0,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 48,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,49; -14,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,12%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-2,89; 0,0</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 1,46</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-4,09; 0,69</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-13,02; -2,64</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,89; -30,26</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,49</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,17%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 4,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,42; -3,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,97; 1,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,78; -1,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,9; 200,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,84; -30,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 107,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -28,12</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,2%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1068,32 +1068,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-3,64; 13,36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; -0,63</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; -1,02</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 23,99</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 36,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,35%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-3,86; 2,82</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 0,74</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-3,56; 3,09</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-7,99; 0,41</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 448,87</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,73; 44,3</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,65</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,49%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,21%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-4,1; -0,64</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; -0,66</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-7,07; 1,95</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-16,24; -3,45</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,05; 7,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,73; 30,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,28; -30,62</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,88%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,08%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,09%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 0,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,23; 0,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 0,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 5,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 309,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,88; 45,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,56; 58,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,17; 632,65</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,58</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,94%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,96%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,11%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,22%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; -0,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,2; -3,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; -0,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,03; -1,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,69; 0,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,97; -50,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,61; -8,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,75; -28,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-18,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,29; -8,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,89; -1,7</t>
+          <t>-10,98; -1,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,44; -32,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-70,45%</t>
+          <t>-69,15%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 0,51</t>
+          <t>-3,87; 0,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,59</t>
+          <t>-7,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-75,12%</t>
+          <t>-75,36%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -2,64</t>
+          <t>-13,09; -2,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-93,89; -30,26</t>
+          <t>-93,87; -30,88</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,49</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-68,58%</t>
+          <t>-49,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-85,17%</t>
+          <t>-84,48%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,42; -3,98</t>
+          <t>-6,25; 2,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,78; -1,43</t>
+          <t>-8,41; -1,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,84; -30,41</t>
+          <t>-100,0; 209,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -28,12</t>
+          <t>-100,0; -24,51</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,99</t>
+          <t>0,0; 24,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-58,35%</t>
+          <t>-57,89%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 0,41</t>
+          <t>-7,78; 0,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-95,73; 44,3</t>
+          <t>-95,33; 44,47</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-8,65</t>
+          <t>-9,95</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-63,21%</t>
+          <t>-73,2%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,24; -3,45</t>
+          <t>-20,04; -4,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-90,28; -30,62</t>
+          <t>-94,51; -38,63</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>44,09%</t>
+          <t>45,02%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 5,69</t>
+          <t>-1,92; 5,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-70,17; 632,65</t>
+          <t>-70,11; 634,23</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-55,22%</t>
+          <t>-61,46%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,03; -1,51</t>
+          <t>-5,83; -2,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-73,75; -28,23</t>
+          <t>-80,69; -37,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 4,64</t>
+          <t>-4,97; 4,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,29; -8,64</t>
+          <t>-26,66; -8,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 0,92</t>
+          <t>-15,13; 1,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,98; -1,84</t>
+          <t>-10,9; -1,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 472,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-93,44; -32,5</t>
+          <t>-93,23; -29,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-79,59; 11,69</t>
+          <t>-77,72; 19,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 0,07</t>
+          <t>-7,83; 0,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,2; -1,79</t>
+          <t>-10,61; -2,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,52</t>
+          <t>-2,13; 3,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,54</t>
+          <t>-4,17; 0,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 48,84</t>
+          <t>-100,0; 83,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-92,49; -14,49</t>
+          <t>-92,83; -20,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 0,0</t>
+          <t>-2,4; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 1,46</t>
+          <t>-3,73; 1,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 0,69</t>
+          <t>-4,03; 0,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,09; -2,71</t>
+          <t>-12,92; -3,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-93,87; -30,88</t>
+          <t>-93,43; -33,41</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 4,34</t>
+          <t>-5,15; 3,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 2,26</t>
+          <t>-6,0; 2,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 1,07</t>
+          <t>-5,79; 1,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,41; -1,32</t>
+          <t>-7,99; -1,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-82,9; 200,4</t>
+          <t>-84,21; 133,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 209,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 107,15</t>
+          <t>-100,0; 119,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -24,51</t>
+          <t>-100,0; -2,15</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 13,36</t>
+          <t>-3,61; 14,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,81; -0,63</t>
+          <t>-13,42; -1,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,67; -1,02</t>
+          <t>-8,84; -1,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,81</t>
+          <t>0,0; 27,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 36,61</t>
+          <t>-100,0; 64,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 2,82</t>
+          <t>-3,77; 2,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 0,74</t>
+          <t>-5,73; 0,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 3,09</t>
+          <t>-3,6; 3,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 0,49</t>
+          <t>-7,81; 0,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 448,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-95,33; 44,47</t>
+          <t>-93,43; 42,64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; -0,64</t>
+          <t>-3,89; -0,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,46; -0,66</t>
+          <t>-6,42; -0,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 1,95</t>
+          <t>-7,18; 1,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,04; -4,89</t>
+          <t>-18,48; -4,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-94,05; 7,25</t>
+          <t>-100,0; 3,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-58,73; 30,32</t>
+          <t>-61,27; 26,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-94,51; -38,63</t>
+          <t>-94,54; -28,44</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,92</t>
+          <t>-2,34; 0,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 0,83</t>
+          <t>-5,01; 0,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 0,86</t>
+          <t>-3,87; 0,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 5,73</t>
+          <t>-1,66; 6,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 309,18</t>
+          <t>-100,0; 212,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-90,88; 45,19</t>
+          <t>-89,24; 48,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-87,56; 58,55</t>
+          <t>-89,3; 51,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-70,11; 634,23</t>
+          <t>-70,78; 527,78</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,36; -0,07</t>
+          <t>-2,3; -0,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,2; -3,19</t>
+          <t>-5,96; -2,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -0,5</t>
+          <t>-3,57; -0,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -2,01</t>
+          <t>-5,72; -1,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-71,69; 0,61</t>
+          <t>-73,02; 2,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-81,97; -50,87</t>
+          <t>-80,37; -46,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-57,61; -8,1</t>
+          <t>-56,58; -10,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-80,69; -37,84</t>
+          <t>-81,51; -35,92</t>
         </is>
       </c>
     </row>
